--- a/Formatos/Reporte_E_N.xlsx
+++ b/Formatos/Reporte_E_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Portal2\ODC\Estado_Cajas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YMS_Github\YMS\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Carrier</t>
-  </si>
-  <si>
-    <t>Load ID</t>
   </si>
   <si>
     <t>Type</t>
@@ -44,27 +41,11 @@
 Loaded</t>
   </si>
   <si>
-    <t>Manifest
-created</t>
-  </si>
-  <si>
-    <t>Load ready
-email</t>
-  </si>
-  <si>
     <t>Seal</t>
   </si>
   <si>
     <t>Departure
 SODC</t>
-  </si>
-  <si>
-    <t>MGO
-Update</t>
-  </si>
-  <si>
-    <t>Prisma
-Folio</t>
   </si>
   <si>
     <t>Route
@@ -547,115 +528,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F4 O4" numberStoredAsText="1"/>
+    <ignoredError sqref="J4" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
